--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.095195666666667</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.285587</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.8546922300706357</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P2">
-        <v>0.8546922300706358</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q2">
-        <v>45.77954062806911</v>
+        <v>0.470467679061111</v>
       </c>
       <c r="R2">
-        <v>412.015865652622</v>
+        <v>4.234209111549999</v>
       </c>
       <c r="S2">
-        <v>0.04290571140842556</v>
+        <v>0.0004233503937473726</v>
       </c>
       <c r="T2">
-        <v>0.04290571140842556</v>
+        <v>0.0004233503937473726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.356208</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N3">
-        <v>1.068624</v>
+        <v>6.285587</v>
       </c>
       <c r="O3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q3">
-        <v>7.783062397216001</v>
+        <v>13.00281643366689</v>
       </c>
       <c r="R3">
-        <v>70.047561574944</v>
+        <v>117.025347903002</v>
       </c>
       <c r="S3">
-        <v>0.00729447750036987</v>
+        <v>0.01170058582558367</v>
       </c>
       <c r="T3">
-        <v>0.00729447750036987</v>
+        <v>0.01170058582558367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>385.0524703333334</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>1155.157411</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.8846641374295412</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.8846641374295412</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.095195666666667</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N4">
-        <v>6.285587</v>
+        <v>1.554291</v>
       </c>
       <c r="O4">
-        <v>0.8546922300706357</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P4">
-        <v>0.8546922300706358</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q4">
-        <v>806.7602672816953</v>
+        <v>3.215317926153999</v>
       </c>
       <c r="R4">
-        <v>7260.842405535259</v>
+        <v>28.937861335386</v>
       </c>
       <c r="S4">
-        <v>0.7561155644831699</v>
+        <v>0.002893304196319654</v>
       </c>
       <c r="T4">
-        <v>0.75611556448317</v>
+        <v>0.002893304196319654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.356208</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>1.068624</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.1453077699293643</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P5">
-        <v>0.1453077699293643</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q5">
-        <v>137.158770352496</v>
+        <v>29.19018602185278</v>
       </c>
       <c r="R5">
-        <v>1234.428933172464</v>
+        <v>262.711674196675</v>
       </c>
       <c r="S5">
-        <v>0.1285485729463713</v>
+        <v>0.0262667921642822</v>
       </c>
       <c r="T5">
-        <v>0.1285485729463713</v>
+        <v>0.0262667921642822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.350479</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>85.05143699999999</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.06513567366166337</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.06513567366166337</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>6.285587</v>
       </c>
       <c r="O6">
-        <v>0.8546922300706357</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P6">
-        <v>0.8546922300706358</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q6">
-        <v>59.39980074872432</v>
+        <v>806.7602672816953</v>
       </c>
       <c r="R6">
-        <v>534.598206738519</v>
+        <v>7260.842405535257</v>
       </c>
       <c r="S6">
-        <v>0.05567095417904023</v>
+        <v>0.725963316959499</v>
       </c>
       <c r="T6">
-        <v>0.05567095417904024</v>
+        <v>0.725963316959499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.350479</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>85.05143699999999</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.06513567366166337</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.06513567366166337</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.356208</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N7">
-        <v>1.068624</v>
+        <v>1.554291</v>
       </c>
       <c r="O7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q7">
-        <v>10.098667423632</v>
+        <v>199.494529722289</v>
       </c>
       <c r="R7">
-        <v>90.88800681268799</v>
+        <v>1795.450767500601</v>
       </c>
       <c r="S7">
-        <v>0.009464719482623134</v>
+        <v>0.179515174935976</v>
       </c>
       <c r="T7">
-        <v>0.009464719482623134</v>
+        <v>0.179515174935976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.00088566666667</v>
+      </c>
+      <c r="H8">
+        <v>66.002657</v>
+      </c>
+      <c r="I8">
+        <v>0.05323747552459213</v>
+      </c>
+      <c r="J8">
+        <v>0.05323747552459213</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.227425</v>
+      </c>
+      <c r="O8">
+        <v>0.028190957994264</v>
+      </c>
+      <c r="P8">
+        <v>0.02819095799426401</v>
+      </c>
+      <c r="Q8">
+        <v>1.667850474247222</v>
+      </c>
+      <c r="R8">
+        <v>15.010654268225</v>
+      </c>
+      <c r="S8">
+        <v>0.001500815436234435</v>
+      </c>
+      <c r="T8">
+        <v>0.001500815436234435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.00088566666667</v>
+      </c>
+      <c r="H9">
+        <v>66.002657</v>
+      </c>
+      <c r="I9">
+        <v>0.05323747552459213</v>
+      </c>
+      <c r="J9">
+        <v>0.05323747552459213</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.285587</v>
+      </c>
+      <c r="O9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="P9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="Q9">
+        <v>46.09616031162877</v>
+      </c>
+      <c r="R9">
+        <v>414.865442804659</v>
+      </c>
+      <c r="S9">
+        <v>0.04147963502426951</v>
+      </c>
+      <c r="T9">
+        <v>0.0414796350242695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>22.00088566666667</v>
+      </c>
+      <c r="H10">
+        <v>66.002657</v>
+      </c>
+      <c r="I10">
+        <v>0.05323747552459213</v>
+      </c>
+      <c r="J10">
+        <v>0.05323747552459213</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5180969999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.554291</v>
+      </c>
+      <c r="O10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="P10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="Q10">
+        <v>11.398592861243</v>
+      </c>
+      <c r="R10">
+        <v>102.587335751187</v>
+      </c>
+      <c r="S10">
+        <v>0.01025702506408819</v>
+      </c>
+      <c r="T10">
+        <v>0.01025702506408819</v>
       </c>
     </row>
   </sheetData>
